--- a/pred_ohlcv/54_21/2020-01-16 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 CTXC ohlcv.xlsx
@@ -1562,7 +1562,7 @@
         <v>-145882.9661255329</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-155125.1652255329</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-155125.1652255329</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-222074.3399255329</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-222074.3399255329</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-272201.9821255329</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-272191.9821255329</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-272191.9821255329</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-275343.8717255329</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-275343.8717255329</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-272917.6241255329</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-268991.3677255329</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-268194.2220255329</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-267441.8350255329</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-274364.1707255329</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-197339.5736255329</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>97653.67735569553</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>119392.610738241</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>132039.6148556955</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>146280.7535556956</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>186043.8704556955</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>230712.1602556956</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>191871.0958556956</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>150521.0033556956</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>152277.8695556956</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>185523.0694556956</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>189316.9668556956</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>189316.9668556956</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>189316.9668556956</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>361261.6636556955</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>361161.6636556955</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>361261.6636556955</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>360798.3772556955</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>360798.3772556955</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>360798.3772556955</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>360798.3772556955</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>308612.57859889</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>324546.9856348339</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>324546.9856348339</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>331839.46929889</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>321286.7472629462</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>333986.8034629461</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>312317.7167629462</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>318520.5117629461</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 CTXC ohlcv.xlsx
@@ -1562,7 +1562,7 @@
         <v>-145882.9661255329</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-155125.1652255329</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-155125.1652255329</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-222074.3399255329</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-222074.3399255329</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-272201.9821255329</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-272191.9821255329</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-272191.9821255329</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-275343.8717255329</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-275343.8717255329</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-272917.6241255329</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-268991.3677255329</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-268194.2220255329</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-267441.8350255329</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-274364.1707255329</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-197339.5736255329</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>97653.67735569553</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>119392.610738241</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>132039.6148556955</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>146280.7535556956</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>186043.8704556955</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>230712.1602556956</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>191871.0958556956</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>150521.0033556956</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>152277.8695556956</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>185523.0694556956</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>189316.9668556956</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>189316.9668556956</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>189316.9668556956</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>361261.6636556955</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>361161.6636556955</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>361261.6636556955</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>360798.3772556955</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>360798.3772556955</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>360798.3772556955</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>360798.3772556955</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>323900.8226988901</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>308612.57859889</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>324546.9856348339</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>324546.9856348339</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>331839.46929889</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>321286.7472629462</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>333986.8034629461</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>312317.7167629462</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>318520.5117629461</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
